--- a/src/ExcelsiorAspose.Tests/Tests.RealWorldScenario.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.RealWorldScenario.verified.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Employee Report 2024" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Employee Report 2024'!$A$1:$G$7</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -564,13 +566,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="17.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="22.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="15.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="9.71428571428571" customWidth="1"/>
-    <col min="7" max="7" width="10.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="19.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="11.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
@@ -735,6 +737,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G7"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/ExcelsiorAspose.Tests/Tests.RealWorldScenario.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.RealWorldScenario.verified.xlsx
@@ -46,7 +46,7 @@
     <t>s.connor@techcorp.com</t>
   </si>
   <si>
-    <t>✓ Active</t>
+    <t>Active</t>
   </si>
   <si>
     <t>Full Time</t>
@@ -79,7 +79,7 @@
     <t>k.reese@techcorp.com</t>
   </si>
   <si>
-    <t>✗ Inactive</t>
+    <t>Inactive</t>
   </si>
   <si>
     <t>Part Time</t>
@@ -575,7 +575,7 @@
     <col min="7" max="7" width="11.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75">
+    <row r="2" spans="1:7" ht="13" customHeight="1">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
@@ -621,7 +621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13" customHeight="1">
       <c r="A3" s="6">
         <v>1002</v>
       </c>
@@ -644,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13" customHeight="1">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13" customHeight="1">
       <c r="A5" s="6">
         <v>1004</v>
       </c>
@@ -690,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
+    <row r="6" spans="1:7" ht="13" customHeight="1">
       <c r="A6" s="2">
         <v>1005</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.RealWorldScenario.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.RealWorldScenario.verified.xlsx
@@ -713,7 +713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
+    <row r="7" spans="1:7" ht="13" customHeight="1">
       <c r="A7" s="6">
         <v>1006</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.RealWorldScenario.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.RealWorldScenario.verified.xlsx
@@ -151,25 +151,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -566,16 +566,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="22.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="15.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="19.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="20.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="14.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" customHeight="1">
+    <row r="1" spans="1:7" ht="14" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1">
+    <row r="2" spans="1:7" ht="14" customHeight="1">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
@@ -621,7 +621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13" customHeight="1">
+    <row r="3" spans="1:7" ht="14" customHeight="1">
       <c r="A3" s="6">
         <v>1002</v>
       </c>
@@ -644,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" customHeight="1">
+    <row r="4" spans="1:7" ht="14" customHeight="1">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13" customHeight="1">
+    <row r="5" spans="1:7" ht="14" customHeight="1">
       <c r="A5" s="6">
         <v>1004</v>
       </c>
@@ -690,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" customHeight="1">
+    <row r="6" spans="1:7" ht="14" customHeight="1">
       <c r="A6" s="2">
         <v>1005</v>
       </c>
@@ -713,7 +713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13" customHeight="1">
+    <row r="7" spans="1:7" ht="14" customHeight="1">
       <c r="A7" s="6">
         <v>1006</v>
       </c>
